--- a/hardware/Hak4Kidz 2019 Badge BOM.xlsx
+++ b/hardware/Hak4Kidz 2019 Badge BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveschw/Documents/GitHub/H4K-badge-2019/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295D6ECB-CEAA-4D49-977C-120D1DCC0C54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D1EB24-1803-614F-8FB5-A11CA451319F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="460" windowWidth="29540" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>Hak4Kidz 2019 Badge BOM</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>LCD Touchscreen</t>
   </si>
   <si>
@@ -57,36 +54,21 @@
     <t>https://www.aliexpress.com/item/Wholesale-3XAA-or-3AA-or-3XLR6-battery-holder-battery-box-battery-case-battery-cell-4-5V/32723654082.html?spm=2114.search0104.3.50.1eb03416ndWErW&amp;ws_ab_test=searchweb0_0,searchweb201602_1_10152_10065_10151_10344_10068_10130_10324_10342_10547_10325_10343_10546_10340_10548_10341_10545_10084_10083_10618_10307_5711211_10313_10059_10534_100031_10103_10627_10626_10624_10623_10622_5722411_10621_10620_10810_10811_5711311,searchweb201603_41,ppcSwitch_5&amp;algo_expid=5e560430-f308-4827-a165-137b1a61fb53-8&amp;algo_pvid=5e560430-f308-4827-a165-137b1a61fb53&amp;transAbTest=ae803_5&amp;priceBeautifyAB=0</t>
   </si>
   <si>
-    <t>Could go with AAA batteries to save weight, but AA lasts ~2.5x longer</t>
-  </si>
-  <si>
     <t>AA Battery</t>
   </si>
   <si>
     <t>https://www.aliexpress.com/item/3M-PE-Foam-double-sided-adhesive-tape-white-color-1MM-thickness-25mm-25mm-square/2037018465.html?spm=2114.search0104.3.48.2e4e381aTn4ccE&amp;ws_ab_test=searchweb0_0,searchweb201602_1_10152_10065_10151_10344_10068_10130_10324_10342_10547_10325_10343_10546_10340_10548_10341_10545_10084_10083_10618_10307_5711211_10313_10059_10534_100031_10103_10627_10626_10624_10623_10622_5722411_10621_10620_10810_10811_5711311,searchweb201603_2,ppcSwitch_5&amp;algo_expid=17161471-7048-4398-a425-fd76898715d8-7&amp;algo_pvid=17161471-7048-4398-a425-fd76898715d8&amp;transAbTest=ae803_4&amp;priceBeautifyAB=0</t>
   </si>
   <si>
-    <t>This comes in a pack of 2000 for $85</t>
-  </si>
-  <si>
-    <t>LEDs for eyes and iPad</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/stmicroelectronics/LD39150DT33-R/497-6448-1-ND/1865476</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/rohm-semiconductor/UMH3NFHATN/UMH3NFHATNCT-ND/8027068</t>
   </si>
   <si>
-    <t>This enables the IDE to reset the chip for code upload</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/c-k/JS102011SAQN/401-1999-1-ND/1640114</t>
   </si>
   <si>
-    <t>This is a right-angle switch. Could be changed to a vertical switch if wanted.</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/amphenol-fci/10118193-0001LF/609-4616-1-ND/2785380</t>
   </si>
   <si>
@@ -117,9 +99,6 @@
     <t>https://www.digikey.com/product-detail/en/IS31FL3236-TQLS2/706-1361-ND/5319752</t>
   </si>
   <si>
-    <t>QFN version is also available if we need to save space</t>
-  </si>
-  <si>
     <t>Double Sided Sticky Foam for LCD &amp; Battery Holder</t>
   </si>
   <si>
@@ -214,15 +193,99 @@
   </si>
   <si>
     <t>Brite White LED SMD Shine down - H4K on chest</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>R9 R10</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R4 R5 R7 R8</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R1 R2</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>J3 J4 (SA0)</t>
+  </si>
+  <si>
+    <t>J2 (HACK)</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>D11 D12 D13 D14 D15 D16</t>
+  </si>
+  <si>
+    <t>D10 D9</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C11 C12</t>
+  </si>
+  <si>
+    <t>C10 C9</t>
+  </si>
+  <si>
+    <t>C1 C3 C5 C6 C7</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/i/32956131069.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,11 +332,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -589,286 +655,363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D67B20B-95CA-8846-84F5-CE601E1C4031}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
         <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C29">
+    <sortCondition ref="B3:B29"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{5B69605D-D4A3-5C4D-ADBD-C908903D275B}"/>
-    <hyperlink ref="B6" r:id="rId2" display="https://www.aliexpress.com/item/Wholesale-3XAA-or-3AA-or-3XLR6-battery-holder-battery-box-battery-case-battery-cell-4-5V/32723654082.html?spm=2114.search0104.3.50.1eb03416ndWErW&amp;ws_ab_test=searchweb0_0,searchweb201602_1_10152_10065_10151_10344_10068_10130_10324_10342_10547_10325_10343_10546_10340_10548_10341_10545_10084_10083_10618_10307_5711211_10313_10059_10534_100031_10103_10627_10626_10624_10623_10622_5722411_10621_10620_10810_10811_5711311,searchweb201603_41,ppcSwitch_5&amp;algo_expid=5e560430-f308-4827-a165-137b1a61fb53-8&amp;algo_pvid=5e560430-f308-4827-a165-137b1a61fb53&amp;transAbTest=ae803_5&amp;priceBeautifyAB=0" xr:uid="{9CBB6F1B-8A92-6849-9FC8-3B483CFE9CAA}"/>
-    <hyperlink ref="B8" r:id="rId3" display="https://www.aliexpress.com/item/3M-PE-Foam-double-sided-adhesive-tape-white-color-1MM-thickness-25mm-25mm-square/2037018465.html?spm=2114.search0104.3.48.2e4e381aTn4ccE&amp;ws_ab_test=searchweb0_0,searchweb201602_1_10152_10065_10151_10344_10068_10130_10324_10342_10547_10325_10343_10546_10340_10548_10341_10545_10084_10083_10618_10307_5711211_10313_10059_10534_100031_10103_10627_10626_10624_10623_10622_5722411_10621_10620_10810_10811_5711311,searchweb201603_2,ppcSwitch_5&amp;algo_expid=17161471-7048-4398-a425-fd76898715d8-7&amp;algo_pvid=17161471-7048-4398-a425-fd76898715d8&amp;transAbTest=ae803_4&amp;priceBeautifyAB=0" xr:uid="{3D9EB32C-D815-BA43-9FAF-14CD337FFB25}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{85DCC8DB-6DAC-7547-BD7A-8D83818D8935}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{A1DE5744-B568-6B40-A5C2-F7047510A440}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{90F92708-6663-1744-8BE0-DD678C3B9399}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{232B6C99-76D5-9347-B5BB-BC748AA42AF4}"/>
-    <hyperlink ref="B12" r:id="rId8" xr:uid="{B2918D4A-C34E-6A40-B2CE-0CB2C7C95EED}"/>
-    <hyperlink ref="B14" r:id="rId9" xr:uid="{1BD57119-648C-5B42-A5C2-83BB9A165B08}"/>
-    <hyperlink ref="B15" r:id="rId10" xr:uid="{ED2274C4-58A2-8948-A7D1-94692820E2BA}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{EED9920B-B9F6-41CB-A916-1BD361D63A47}"/>
-    <hyperlink ref="B10" r:id="rId12" xr:uid="{79F7A7A2-2A50-4412-8C7D-5F6CBDAAD372}"/>
-    <hyperlink ref="B28" r:id="rId13" xr:uid="{0E28E882-CB27-4CBC-AE3F-FB861685057B}"/>
-    <hyperlink ref="B27" r:id="rId14" xr:uid="{8FA64241-CF15-9649-9AE5-30C05B9A0311}"/>
-    <hyperlink ref="B26" r:id="rId15" xr:uid="{6AF33CB1-92F6-1F42-BB5C-3BA7C088A291}"/>
-    <hyperlink ref="B24" r:id="rId16" xr:uid="{6D176F7E-4134-864D-815E-528338978C67}"/>
+    <hyperlink ref="C27" r:id="rId1" xr:uid="{5B69605D-D4A3-5C4D-ADBD-C908903D275B}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://www.aliexpress.com/item/Wholesale-3XAA-or-3AA-or-3XLR6-battery-holder-battery-box-battery-case-battery-cell-4-5V/32723654082.html?spm=2114.search0104.3.50.1eb03416ndWErW&amp;ws_ab_test=searchweb0_0,searchweb201602_1_10152_10065_10151_10344_10068_10130_10324_10342_10547_10325_10343_10546_10340_10548_10341_10545_10084_10083_10618_10307_5711211_10313_10059_10534_100031_10103_10627_10626_10624_10623_10622_5722411_10621_10620_10810_10811_5711311,searchweb201603_41,ppcSwitch_5&amp;algo_expid=5e560430-f308-4827-a165-137b1a61fb53-8&amp;algo_pvid=5e560430-f308-4827-a165-137b1a61fb53&amp;transAbTest=ae803_5&amp;priceBeautifyAB=0" xr:uid="{9CBB6F1B-8A92-6849-9FC8-3B483CFE9CAA}"/>
+    <hyperlink ref="C17" r:id="rId3" display="https://www.aliexpress.com/item/3M-PE-Foam-double-sided-adhesive-tape-white-color-1MM-thickness-25mm-25mm-square/2037018465.html?spm=2114.search0104.3.48.2e4e381aTn4ccE&amp;ws_ab_test=searchweb0_0,searchweb201602_1_10152_10065_10151_10344_10068_10130_10324_10342_10547_10325_10343_10546_10340_10548_10341_10545_10084_10083_10618_10307_5711211_10313_10059_10534_100031_10103_10627_10626_10624_10623_10622_5722411_10621_10620_10810_10811_5711311,searchweb201603_2,ppcSwitch_5&amp;algo_expid=17161471-7048-4398-a425-fd76898715d8-7&amp;algo_pvid=17161471-7048-4398-a425-fd76898715d8&amp;transAbTest=ae803_4&amp;priceBeautifyAB=0" xr:uid="{3D9EB32C-D815-BA43-9FAF-14CD337FFB25}"/>
+    <hyperlink ref="C24" r:id="rId4" xr:uid="{85DCC8DB-6DAC-7547-BD7A-8D83818D8935}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{A1DE5744-B568-6B40-A5C2-F7047510A440}"/>
+    <hyperlink ref="C25" r:id="rId6" xr:uid="{90F92708-6663-1744-8BE0-DD678C3B9399}"/>
+    <hyperlink ref="C28" r:id="rId7" xr:uid="{232B6C99-76D5-9347-B5BB-BC748AA42AF4}"/>
+    <hyperlink ref="C29" r:id="rId8" xr:uid="{B2918D4A-C34E-6A40-B2CE-0CB2C7C95EED}"/>
+    <hyperlink ref="C23" r:id="rId9" xr:uid="{1BD57119-648C-5B42-A5C2-83BB9A165B08}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{ED2274C4-58A2-8948-A7D1-94692820E2BA}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{EED9920B-B9F6-41CB-A916-1BD361D63A47}"/>
+    <hyperlink ref="C11" r:id="rId12" xr:uid="{79F7A7A2-2A50-4412-8C7D-5F6CBDAAD372}"/>
+    <hyperlink ref="C26" r:id="rId13" xr:uid="{0E28E882-CB27-4CBC-AE3F-FB861685057B}"/>
+    <hyperlink ref="C14" r:id="rId14" xr:uid="{8FA64241-CF15-9649-9AE5-30C05B9A0311}"/>
+    <hyperlink ref="C21" r:id="rId15" xr:uid="{6AF33CB1-92F6-1F42-BB5C-3BA7C088A291}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{6D176F7E-4134-864D-815E-528338978C67}"/>
+    <hyperlink ref="C16" r:id="rId17" xr:uid="{1CAB0E42-6103-F74C-BAF6-BCCA8C6E2214}"/>
+    <hyperlink ref="C15" r:id="rId18" xr:uid="{4F9C7715-B329-574B-8C1D-FFC7BD198A3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
